--- a/files/fr.xlsx
+++ b/files/fr.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20344"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F97D100-CDB4-48EB-88E5-F827A06A0930}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BC9AFB-E039-4985-B005-2B1B901091BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Voc" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Voc!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t>word</t>
   </si>
@@ -37,79 +37,124 @@
     <t>tags</t>
   </si>
   <si>
-    <t>méduse</t>
-  </si>
-  <si>
-    <t>Qualle</t>
+    <t>noun</t>
+  </si>
+  <si>
+    <t>[m]</t>
+  </si>
+  <si>
+    <t>definition</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>échantillon</t>
+  </si>
+  <si>
+    <t>Probe, Stichprobe</t>
+  </si>
+  <si>
+    <t>isoloir</t>
+  </si>
+  <si>
+    <t>Wahlkabine</t>
+  </si>
+  <si>
+    <t>virgule</t>
+  </si>
+  <si>
+    <t>Komma</t>
   </si>
   <si>
     <t>[f]</t>
   </si>
   <si>
-    <t>noun</t>
-  </si>
-  <si>
-    <t>baleine</t>
-  </si>
-  <si>
-    <t>Wal</t>
-  </si>
-  <si>
-    <t>[m]</t>
-  </si>
-  <si>
-    <t>phoque</t>
-  </si>
-  <si>
-    <t>Robbe</t>
-  </si>
-  <si>
-    <t>morse</t>
-  </si>
-  <si>
-    <t>Walross</t>
-  </si>
-  <si>
-    <t>[n]</t>
-  </si>
-  <si>
-    <t>mure</t>
-  </si>
-  <si>
-    <t>Brombeere</t>
-  </si>
-  <si>
-    <t>front</t>
-  </si>
-  <si>
-    <t>Stirn</t>
-  </si>
-  <si>
-    <t>boulanger</t>
-  </si>
-  <si>
-    <t>Bäcker</t>
-  </si>
-  <si>
-    <t>nombrile</t>
-  </si>
-  <si>
-    <t>Bauchnabel</t>
-  </si>
-  <si>
-    <t>nouer</t>
-  </si>
-  <si>
-    <t>binden, zubinden</t>
+    <t>point-virgule</t>
+  </si>
+  <si>
+    <t>Somikolon</t>
+  </si>
+  <si>
+    <t>rassemblement</t>
+  </si>
+  <si>
+    <t>Zusammenschluss</t>
+  </si>
+  <si>
+    <t>circonscription</t>
+  </si>
+  <si>
+    <t>Wahlkreis, Amtsbezirk</t>
+  </si>
+  <si>
+    <t>déménagement</t>
+  </si>
+  <si>
+    <t>Umzug</t>
+  </si>
+  <si>
+    <t>locataire</t>
+  </si>
+  <si>
+    <t>[m/f]</t>
+  </si>
+  <si>
+    <t>Mieter*in</t>
+  </si>
+  <si>
+    <t>confectionner</t>
+  </si>
+  <si>
+    <t>zubereiten, anfertigen</t>
   </si>
   <si>
     <t>verb</t>
   </si>
   <si>
-    <t>definition</t>
-  </si>
-  <si>
-    <t>example</t>
+    <t>pari</t>
+  </si>
+  <si>
+    <t>Wette</t>
+  </si>
+  <si>
+    <t>coquillage</t>
+  </si>
+  <si>
+    <t>Muschelschale</t>
+  </si>
+  <si>
+    <t>succinct</t>
+  </si>
+  <si>
+    <t>kurz, knapp</t>
+  </si>
+  <si>
+    <t>adjective</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rhume des foins</t>
+  </si>
+  <si>
+    <t>Heuschnupfen</t>
+  </si>
+  <si>
+    <t>ignare</t>
+  </si>
+  <si>
+    <t>völlig unwissend, ungebildet</t>
+  </si>
+  <si>
+    <t>brouillon</t>
+  </si>
+  <si>
+    <t>bousculer</t>
+  </si>
+  <si>
+    <t>monticule</t>
+  </si>
+  <si>
+    <t>maussade</t>
   </si>
 </sst>
 </file>
@@ -220,8 +265,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{38F34CA6-174B-4A47-AF08-B4AC2203F2CA}" name="Tabelle1" displayName="Tabelle1" ref="A1:F10" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A1:F10" xr:uid="{85107FDA-959E-4859-93CA-B84DFFCCF935}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{38F34CA6-174B-4A47-AF08-B4AC2203F2CA}" name="Tabelle1" displayName="Tabelle1" ref="A1:F19" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A1:F19" xr:uid="{85107FDA-959E-4859-93CA-B84DFFCCF935}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{AB4872EE-BE56-4B1E-9E7E-FD49F613F7C7}" name="word"/>
     <tableColumn id="2" xr3:uid="{2A4F9947-8930-4976-9008-F6DF74F4ABA6}" name="translation"/>
@@ -497,16 +542,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
     <col min="4" max="5" width="13.42578125" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
@@ -526,133 +571,217 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/files/fr.xlsx
+++ b/files/fr.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20344"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BC9AFB-E039-4985-B005-2B1B901091BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6782A7-BB03-4119-AC15-0BE9DA5A6D3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>word</t>
   </si>
@@ -37,124 +37,82 @@
     <t>tags</t>
   </si>
   <si>
+    <t>definition</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>estival</t>
+  </si>
+  <si>
+    <t>sommerlich</t>
+  </si>
+  <si>
+    <t>adjective</t>
+  </si>
+  <si>
+    <t>désaltérer</t>
+  </si>
+  <si>
+    <t>den Durst stillen</t>
+  </si>
+  <si>
+    <t>verb</t>
+  </si>
+  <si>
+    <t>gage</t>
+  </si>
+  <si>
+    <t>Pfand</t>
+  </si>
+  <si>
     <t>noun</t>
   </si>
   <si>
     <t>[m]</t>
   </si>
   <si>
-    <t>definition</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>échantillon</t>
-  </si>
-  <si>
-    <t>Probe, Stichprobe</t>
-  </si>
-  <si>
-    <t>isoloir</t>
-  </si>
-  <si>
-    <t>Wahlkabine</t>
-  </si>
-  <si>
-    <t>virgule</t>
-  </si>
-  <si>
-    <t>Komma</t>
-  </si>
-  <si>
-    <t>[f]</t>
-  </si>
-  <si>
-    <t>point-virgule</t>
-  </si>
-  <si>
-    <t>Somikolon</t>
-  </si>
-  <si>
-    <t>rassemblement</t>
-  </si>
-  <si>
-    <t>Zusammenschluss</t>
-  </si>
-  <si>
-    <t>circonscription</t>
-  </si>
-  <si>
-    <t>Wahlkreis, Amtsbezirk</t>
-  </si>
-  <si>
-    <t>déménagement</t>
-  </si>
-  <si>
-    <t>Umzug</t>
-  </si>
-  <si>
-    <t>locataire</t>
-  </si>
-  <si>
-    <t>[m/f]</t>
-  </si>
-  <si>
-    <t>Mieter*in</t>
-  </si>
-  <si>
-    <t>confectionner</t>
-  </si>
-  <si>
-    <t>zubereiten, anfertigen</t>
-  </si>
-  <si>
-    <t>verb</t>
-  </si>
-  <si>
-    <t>pari</t>
-  </si>
-  <si>
-    <t>Wette</t>
-  </si>
-  <si>
-    <t>coquillage</t>
-  </si>
-  <si>
-    <t>Muschelschale</t>
-  </si>
-  <si>
-    <t>succinct</t>
-  </si>
-  <si>
-    <t>kurz, knapp</t>
-  </si>
-  <si>
-    <t>adjective</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> rhume des foins</t>
-  </si>
-  <si>
-    <t>Heuschnupfen</t>
-  </si>
-  <si>
-    <t>ignare</t>
-  </si>
-  <si>
-    <t>völlig unwissend, ungebildet</t>
-  </si>
-  <si>
-    <t>brouillon</t>
-  </si>
-  <si>
-    <t>bousculer</t>
-  </si>
-  <si>
-    <t>monticule</t>
-  </si>
-  <si>
-    <t>maussade</t>
+    <t>canicule</t>
+  </si>
+  <si>
+    <t>forfaitaire</t>
+  </si>
+  <si>
+    <t>gaufre</t>
+  </si>
+  <si>
+    <t>tressauter</t>
+  </si>
+  <si>
+    <t>accoudoir</t>
+  </si>
+  <si>
+    <t>truite</t>
+  </si>
+  <si>
+    <t>glousser</t>
+  </si>
+  <si>
+    <t>valdinguer</t>
+  </si>
+  <si>
+    <t>dégel</t>
+  </si>
+  <si>
+    <t>brin</t>
+  </si>
+  <si>
+    <t>clapoter</t>
+  </si>
+  <si>
+    <t>fantoche</t>
+  </si>
+  <si>
+    <t>bourrasque</t>
+  </si>
+  <si>
+    <t>singe</t>
   </si>
 </sst>
 </file>
@@ -265,8 +223,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{38F34CA6-174B-4A47-AF08-B4AC2203F2CA}" name="Tabelle1" displayName="Tabelle1" ref="A1:F19" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A1:F19" xr:uid="{85107FDA-959E-4859-93CA-B84DFFCCF935}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{38F34CA6-174B-4A47-AF08-B4AC2203F2CA}" name="Tabelle1" displayName="Tabelle1" ref="A1:F18" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A1:F18" xr:uid="{85107FDA-959E-4859-93CA-B84DFFCCF935}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{AB4872EE-BE56-4B1E-9E7E-FD49F613F7C7}" name="word"/>
     <tableColumn id="2" xr3:uid="{2A4F9947-8930-4976-9008-F6DF74F4ABA6}" name="translation"/>
@@ -542,16 +500,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
     <col min="4" max="5" width="13.42578125" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
@@ -571,38 +529,32 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -613,175 +565,80 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/files/fr.xlsx
+++ b/files/fr.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20344"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6782A7-BB03-4119-AC15-0BE9DA5A6D3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CAF873-8EDB-45B0-B1A0-E7FEC23CBD19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>word</t>
   </si>
@@ -41,78 +41,6 @@
   </si>
   <si>
     <t>example</t>
-  </si>
-  <si>
-    <t>estival</t>
-  </si>
-  <si>
-    <t>sommerlich</t>
-  </si>
-  <si>
-    <t>adjective</t>
-  </si>
-  <si>
-    <t>désaltérer</t>
-  </si>
-  <si>
-    <t>den Durst stillen</t>
-  </si>
-  <si>
-    <t>verb</t>
-  </si>
-  <si>
-    <t>gage</t>
-  </si>
-  <si>
-    <t>Pfand</t>
-  </si>
-  <si>
-    <t>noun</t>
-  </si>
-  <si>
-    <t>[m]</t>
-  </si>
-  <si>
-    <t>canicule</t>
-  </si>
-  <si>
-    <t>forfaitaire</t>
-  </si>
-  <si>
-    <t>gaufre</t>
-  </si>
-  <si>
-    <t>tressauter</t>
-  </si>
-  <si>
-    <t>accoudoir</t>
-  </si>
-  <si>
-    <t>truite</t>
-  </si>
-  <si>
-    <t>glousser</t>
-  </si>
-  <si>
-    <t>valdinguer</t>
-  </si>
-  <si>
-    <t>dégel</t>
-  </si>
-  <si>
-    <t>brin</t>
-  </si>
-  <si>
-    <t>clapoter</t>
-  </si>
-  <si>
-    <t>fantoche</t>
-  </si>
-  <si>
-    <t>bourrasque</t>
-  </si>
-  <si>
-    <t>singe</t>
   </si>
 </sst>
 </file>
@@ -176,7 +104,17 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border outline="0">
         <top style="thin">
@@ -223,8 +161,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{38F34CA6-174B-4A47-AF08-B4AC2203F2CA}" name="Tabelle1" displayName="Tabelle1" ref="A1:F18" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A1:F18" xr:uid="{85107FDA-959E-4859-93CA-B84DFFCCF935}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{38F34CA6-174B-4A47-AF08-B4AC2203F2CA}" name="Tabelle1" displayName="Tabelle1" ref="A1:F2" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
+  <autoFilter ref="A1:F2" xr:uid="{85107FDA-959E-4859-93CA-B84DFFCCF935}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{AB4872EE-BE56-4B1E-9E7E-FD49F613F7C7}" name="word"/>
     <tableColumn id="2" xr3:uid="{2A4F9947-8930-4976-9008-F6DF74F4ABA6}" name="translation"/>
@@ -500,16 +438,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
     <col min="4" max="5" width="13.42578125" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
@@ -535,113 +473,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-    </row>
   </sheetData>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/files/fr.xlsx
+++ b/files/fr.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CAF873-8EDB-45B0-B1A0-E7FEC23CBD19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BD17BA-A188-4288-BE09-B5B5EB425113}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>word</t>
   </si>
@@ -41,6 +41,24 @@
   </si>
   <si>
     <t>example</t>
+  </si>
+  <si>
+    <t>pilonner</t>
+  </si>
+  <si>
+    <t>obus</t>
+  </si>
+  <si>
+    <t>boiter</t>
+  </si>
+  <si>
+    <t>carreau</t>
+  </si>
+  <si>
+    <t>interpeler</t>
+  </si>
+  <si>
+    <t>mortier</t>
   </si>
 </sst>
 </file>
@@ -104,7 +122,27 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -147,6 +185,16 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -161,8 +209,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{38F34CA6-174B-4A47-AF08-B4AC2203F2CA}" name="Tabelle1" displayName="Tabelle1" ref="A1:F2" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
-  <autoFilter ref="A1:F2" xr:uid="{85107FDA-959E-4859-93CA-B84DFFCCF935}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{38F34CA6-174B-4A47-AF08-B4AC2203F2CA}" name="Tabelle1" displayName="Tabelle1" ref="A1:F7" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="A1:F7" xr:uid="{85107FDA-959E-4859-93CA-B84DFFCCF935}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{AB4872EE-BE56-4B1E-9E7E-FD49F613F7C7}" name="word"/>
     <tableColumn id="2" xr3:uid="{2A4F9947-8930-4976-9008-F6DF74F4ABA6}" name="translation"/>
@@ -438,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,9 +521,39 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
+  <conditionalFormatting sqref="A2:A7">
+    <cfRule type="duplicateValues" dxfId="6" priority="16"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
